--- a/curve_fitting/curve_fitting_normal_config.xlsx
+++ b/curve_fitting/curve_fitting_normal_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vemanuele/Desktop/regressione/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vemanuele/Documents/GitHub/masters-degree-thesis/curve_fitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4160FEBF-3C87-E942-939D-18CE16B46513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC3E3DB-6CE1-6C49-8AA2-2C85260F08F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{CCB12E8F-06C1-F543-9439-34DF800BCDCE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23560" windowHeight="16320" xr2:uid="{CCB12E8F-06C1-F543-9439-34DF800BCDCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,15 +171,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.4335739282589673E-2"/>
-                  <c:y val="-0.64157407407407407"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -212,10 +206,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$20</c:f>
+              <c:f>Sheet1!$A$1:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3000</c:v>
                 </c:pt>
@@ -265,84 +259,66 @@
                   <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>57000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>60000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$20</c:f>
+              <c:f>Sheet1!$B$1:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>9.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.21</c:v>
+                  <c:v>4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.87</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.34</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.09</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.93</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.87</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.82</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.78</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.74</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.71</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.68</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>1.61</c:v>
                 </c:pt>
               </c:numCache>
@@ -351,7 +327,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C39-3144-8751-6FF11086C673}"/>
+              <c16:uniqueId val="{00000000-DE3D-9741-A0F1-B6C7B341F48A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -363,11 +339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92413551"/>
-        <c:axId val="2127832432"/>
+        <c:axId val="2143902128"/>
+        <c:axId val="2143748720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92413551"/>
+        <c:axId val="2143902128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,12 +400,12 @@
             <a:endParaRPr lang="en-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127832432"/>
+        <c:crossAx val="2143748720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127832432"/>
+        <c:axId val="2143748720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +462,7 @@
             <a:endParaRPr lang="en-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92413551"/>
+        <c:crossAx val="2143902128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1103,22 +1079,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>8467</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>448476</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F55A69-0A10-0607-1D3A-4315602F680D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9187DA-61CF-2020-DCB7-960DDC1F90F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9D7F47-46D1-4747-8996-BCB7BC98B6CD}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1457,7 +1433,7 @@
         <v>6000</v>
       </c>
       <c r="B2">
-        <v>5.21</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,7 +1441,7 @@
         <v>9000</v>
       </c>
       <c r="B3">
-        <v>3.87</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1473,7 +1449,7 @@
         <v>12000</v>
       </c>
       <c r="B4">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1481,7 +1457,7 @@
         <v>15000</v>
       </c>
       <c r="B5">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1489,7 +1465,7 @@
         <v>18000</v>
       </c>
       <c r="B6">
-        <v>2.5299999999999998</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1497,7 +1473,7 @@
         <v>21000</v>
       </c>
       <c r="B7">
-        <v>2.34</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1505,7 +1481,7 @@
         <v>24000</v>
       </c>
       <c r="B8">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1513,7 +1489,7 @@
         <v>27000</v>
       </c>
       <c r="B9">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1521,7 +1497,7 @@
         <v>30000</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1529,7 +1505,7 @@
         <v>33000</v>
       </c>
       <c r="B11">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1537,7 +1513,7 @@
         <v>36000</v>
       </c>
       <c r="B12">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1545,7 +1521,7 @@
         <v>39000</v>
       </c>
       <c r="B13">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1553,7 +1529,7 @@
         <v>42000</v>
       </c>
       <c r="B14">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1561,7 +1537,7 @@
         <v>45000</v>
       </c>
       <c r="B15">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1569,41 +1545,20 @@
         <v>48000</v>
       </c>
       <c r="B16">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>51000</v>
+        <v>50000</v>
       </c>
       <c r="B17">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>54000</v>
-      </c>
-      <c r="B18">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>57000</v>
-      </c>
-      <c r="B19">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>60000</v>
-      </c>
-      <c r="B20">
         <v>1.61</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/curve_fitting/curve_fitting_normal_config.xlsx
+++ b/curve_fitting/curve_fitting_normal_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vemanuele/Documents/GitHub/masters-degree-thesis/curve_fitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC3E3DB-6CE1-6C49-8AA2-2C85260F08F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D46F9-9F20-8847-8657-94AD6AFD7A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23560" windowHeight="16320" xr2:uid="{CCB12E8F-06C1-F543-9439-34DF800BCDCE}"/>
   </bookViews>
@@ -100,6 +100,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Curve</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> fitting (normal)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -174,6 +204,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11863187518861369"/>
+                  <c:y val="-0.7073504862792146"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1414,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9D7F47-46D1-4747-8996-BCB7BC98B6CD}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
